--- a/CU-Batch4-Dotnet-6973825-ShreyaBiswas.xlsx
+++ b/CU-Batch4-Dotnet-6973825-ShreyaBiswas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fdb74b276362dfa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fdb74b276362dfa/Pictures/Documents/Capgemini Training/CU-DotNet-Jan26-B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{1C29B338-BF50-4A44-B2C5-1A7A5E10CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0462D953-7D66-4109-88F0-A5C14C9C993A}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{1C29B338-BF50-4A44-B2C5-1A7A5E10CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9422895-1884-42A2-B34B-A647AC7C1A33}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C99DFE55-A9F3-4CE7-8732-71313EE2B406}"/>
   </bookViews>
@@ -343,6 +343,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,7 +649,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" zoomScale="79" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
